--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="226">
   <si>
     <t>mesure</t>
   </si>
@@ -93,388 +93,484 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>% de surface agricole</t>
+  </si>
+  <si>
+    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
+  </si>
+  <si>
+    <t>nb-agriculteurs-agro-eco</t>
+  </si>
+  <si>
+    <t>105.0</t>
   </si>
   <si>
     <t>2019-12-31</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>agriculteurs</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1.7</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>167.0</t>
-  </si>
-  <si>
-    <t>% de surface agricole</t>
-  </si>
-  <si>
-    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
-  </si>
-  <si>
-    <t>nb-agriculteurs-agro-eco</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>agriculteurs</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>342.0</t>
+  </si>
+  <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>491.0</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>748.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>Sécuriser le paiement des aides PAC</t>
+  </si>
+  <si>
+    <t>Taux de bénéficiaires payés dans les délais prévus</t>
+  </si>
+  <si>
+    <t>taux-paiement-dpb</t>
+  </si>
+  <si>
+    <t>99.82</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>2.6</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>1579.0</t>
+  </si>
+  <si>
+    <t>1075.0</t>
+  </si>
+  <si>
+    <t>504.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>2406.0</t>
+  </si>
+  <si>
+    <t>99.88</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>2847.0</t>
+  </si>
+  <si>
+    <t>2074.0</t>
+  </si>
+  <si>
+    <t>773.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>4338.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>99.81</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>2010.0</t>
+  </si>
+  <si>
+    <t>1604.0</t>
+  </si>
+  <si>
+    <t>406.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>3063.0</t>
+  </si>
+  <si>
+    <t>99.72</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>1252.0</t>
+  </si>
+  <si>
+    <t>893.0</t>
+  </si>
+  <si>
+    <t>359.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>1908.0</t>
+  </si>
+  <si>
+    <t>99.46</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>4180.0</t>
+  </si>
+  <si>
+    <t>2481.0</t>
+  </si>
+  <si>
+    <t>1699.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>6369.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>99.7</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>3928.0</t>
+  </si>
+  <si>
+    <t>2953.0</t>
+  </si>
+  <si>
+    <t>975.0</t>
+  </si>
+  <si>
+    <t>5985.0</t>
+  </si>
+  <si>
+    <t>99.76</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>3394.0</t>
+  </si>
+  <si>
+    <t>2697.0</t>
+  </si>
+  <si>
+    <t>697.0</t>
+  </si>
+  <si>
+    <t>5172.0</t>
+  </si>
+  <si>
+    <t>99.61</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
   </si>
   <si>
     <t>53.0</t>
   </si>
   <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>342.0</t>
-  </si>
-  <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>491.0</t>
-  </si>
-  <si>
-    <t>314.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>Sécuriser le paiement des aides PAC</t>
-  </si>
-  <si>
-    <t>Taux de bénéficiaires payés dans les délais prévus</t>
-  </si>
-  <si>
-    <t>taux-paiement-dpb</t>
-  </si>
-  <si>
-    <t>99.82</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>1579.0</t>
-  </si>
-  <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>504.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>99.88</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>2847.0</t>
-  </si>
-  <si>
-    <t>2074.0</t>
-  </si>
-  <si>
-    <t>773.0</t>
-  </si>
-  <si>
-    <t>99.81</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>2010.0</t>
-  </si>
-  <si>
-    <t>1604.0</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>99.72</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1252.0</t>
-  </si>
-  <si>
-    <t>893.0</t>
-  </si>
-  <si>
-    <t>359.0</t>
-  </si>
-  <si>
-    <t>99.46</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4180.0</t>
-  </si>
-  <si>
-    <t>2481.0</t>
-  </si>
-  <si>
-    <t>1699.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>99.7</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>3928.0</t>
-  </si>
-  <si>
-    <t>2953.0</t>
-  </si>
-  <si>
-    <t>975.0</t>
-  </si>
-  <si>
-    <t>99.76</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>3394.0</t>
-  </si>
-  <si>
-    <t>2697.0</t>
-  </si>
-  <si>
-    <t>697.0</t>
-  </si>
-  <si>
-    <t>99.61</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>35.0</t>
+    <t>31.0</t>
   </si>
   <si>
     <t>8704.0</t>
@@ -489,6 +585,9 @@
     <t>55.0</t>
   </si>
   <si>
+    <t>13263.0</t>
+  </si>
+  <si>
     <t>99.77</t>
   </si>
   <si>
@@ -498,15 +597,12 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>16.0</t>
+    <t>17.7</t>
   </si>
   <si>
     <t>12.8</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>11480.0</t>
   </si>
   <si>
@@ -519,6 +615,9 @@
     <t>39.0</t>
   </si>
   <si>
+    <t>17493.0</t>
+  </si>
+  <si>
     <t>99.75</t>
   </si>
   <si>
@@ -528,7 +627,7 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>9.5</t>
+    <t>10.5</t>
   </si>
   <si>
     <t>8.0</t>
@@ -540,7 +639,7 @@
     <t>5403.0</t>
   </si>
   <si>
-    <t>30.0</t>
+    <t>10677.0</t>
   </si>
   <si>
     <t>99.73</t>
@@ -552,13 +651,13 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>28.8</t>
+    <t>32.4</t>
   </si>
   <si>
     <t>23.2</t>
   </si>
   <si>
-    <t>24.0</t>
+    <t>9.0</t>
   </si>
   <si>
     <t>4454.0</t>
@@ -570,7 +669,7 @@
     <t>1187.0</t>
   </si>
   <si>
-    <t>36.0</t>
+    <t>6787.0</t>
   </si>
   <si>
     <t>99.43</t>
@@ -582,13 +681,13 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>14.8</t>
+    <t>18.1</t>
   </si>
   <si>
     <t>10.6</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>71.0</t>
   </si>
   <si>
     <t>547.0</t>
@@ -598,6 +697,9 @@
   </si>
   <si>
     <t>149.0</t>
+  </si>
+  <si>
+    <t>834.0</t>
   </si>
   <si>
     <t>96.98</t>
@@ -1025,8 +1127,17 @@
       <c r="K2" t="s">
         <v>25</v>
       </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,10 +1145,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1046,25 +1157,34 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1138,31 +1258,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>135</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1170,81 +1299,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" t="s">
         <v>116</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1318,31 +1456,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>135</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1350,81 +1497,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1498,31 +1654,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>158</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1530,81 +1695,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1678,31 +1852,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>168</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1710,81 +1893,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>146</v>
+      </c>
+      <c r="L3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1858,31 +2050,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>178</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1890,81 +2091,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>183</v>
+      </c>
+      <c r="L3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2038,31 +2248,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2070,81 +2289,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>193</v>
+      </c>
+      <c r="L3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2218,31 +2446,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>179</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2250,81 +2487,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2398,31 +2644,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>140</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2430,81 +2685,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="K3" t="s">
-        <v>179</v>
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2578,31 +2842,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>218</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2610,81 +2883,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2758,31 +3040,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2790,37 +3081,46 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2894,31 +3194,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2926,37 +3235,46 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3030,19 +3348,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3051,10 +3369,19 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3062,37 +3389,46 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3166,31 +3502,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3198,37 +3543,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3302,31 +3647,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3334,81 +3688,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3482,19 +3845,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3503,10 +3866,19 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3514,81 +3886,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>108</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3662,31 +4043,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3694,81 +4084,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3842,19 +4241,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3863,10 +4262,19 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3874,81 +4282,90 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>129</v>
+      </c>
+      <c r="L3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="235">
   <si>
     <t>mesure</t>
   </si>
@@ -129,303 +129,318 @@
     <t>nb-agriculteurs-agro-eco</t>
   </si>
   <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
+    <t>188.0</t>
   </si>
   <si>
     <t>49.0</t>
   </si>
   <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
   </si>
   <si>
     <t>160.0</t>
   </si>
   <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>agriculteurs</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
     <t>50.0</t>
   </si>
   <si>
-    <t>agriculteurs</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>408.0</t>
+  </si>
+  <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>629.0</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>748.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>Sécuriser le paiement des aides PAC</t>
+  </si>
+  <si>
+    <t>Taux de bénéficiaires payés dans les délais prévus</t>
+  </si>
+  <si>
+    <t>taux-paiement-dpb</t>
+  </si>
+  <si>
+    <t>99.82</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>2229.0</t>
+  </si>
+  <si>
+    <t>1075.0</t>
+  </si>
+  <si>
+    <t>1154.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>2406.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>99.88</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>3615.0</t>
+  </si>
+  <si>
+    <t>2074.0</t>
+  </si>
+  <si>
+    <t>1541.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>4338.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>99.81</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>2211.0</t>
+  </si>
+  <si>
+    <t>1604.0</t>
+  </si>
+  <si>
+    <t>607.0</t>
   </si>
   <si>
     <t>38.0</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>342.0</t>
-  </si>
-  <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>521.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>491.0</t>
-  </si>
-  <si>
-    <t>314.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>748.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>Sécuriser le paiement des aides PAC</t>
-  </si>
-  <si>
-    <t>Taux de bénéficiaires payés dans les délais prévus</t>
-  </si>
-  <si>
-    <t>taux-paiement-dpb</t>
-  </si>
-  <si>
-    <t>99.82</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>1579.0</t>
-  </si>
-  <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>504.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>2406.0</t>
-  </si>
-  <si>
-    <t>99.88</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>2847.0</t>
-  </si>
-  <si>
-    <t>2074.0</t>
-  </si>
-  <si>
-    <t>773.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>4338.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>99.81</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>2010.0</t>
-  </si>
-  <si>
-    <t>1604.0</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
     <t>3063.0</t>
   </si>
   <si>
+    <t>42.0</t>
+  </si>
+  <si>
     <t>99.72</t>
   </si>
   <si>
@@ -441,117 +456,117 @@
     <t>67.0</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>1252.0</t>
+    <t>1495.0</t>
   </si>
   <si>
     <t>893.0</t>
   </si>
   <si>
-    <t>359.0</t>
+    <t>602.0</t>
+  </si>
+  <si>
+    <t>1908.0</t>
+  </si>
+  <si>
+    <t>99.46</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>6189.0</t>
+  </si>
+  <si>
+    <t>2481.0</t>
+  </si>
+  <si>
+    <t>3708.0</t>
+  </si>
+  <si>
+    <t>149.0</t>
+  </si>
+  <si>
+    <t>6369.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>99.7</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>4814.0</t>
+  </si>
+  <si>
+    <t>2953.0</t>
+  </si>
+  <si>
+    <t>1861.0</t>
+  </si>
+  <si>
+    <t>5985.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>99.76</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>9.5</t>
   </si>
   <si>
     <t>40.0</t>
   </si>
   <si>
-    <t>1908.0</t>
-  </si>
-  <si>
-    <t>99.46</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>4180.0</t>
-  </si>
-  <si>
-    <t>2481.0</t>
-  </si>
-  <si>
-    <t>1699.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>6369.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>99.7</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>3928.0</t>
-  </si>
-  <si>
-    <t>2953.0</t>
-  </si>
-  <si>
-    <t>975.0</t>
-  </si>
-  <si>
-    <t>5985.0</t>
-  </si>
-  <si>
-    <t>99.76</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>3394.0</t>
+    <t>3845.0</t>
   </si>
   <si>
     <t>2697.0</t>
   </si>
   <si>
-    <t>697.0</t>
+    <t>1148.0</t>
   </si>
   <si>
     <t>5172.0</t>
   </si>
   <si>
+    <t>46.0</t>
+  </si>
+  <si>
     <t>99.61</t>
   </si>
   <si>
@@ -573,16 +588,16 @@
     <t>31.0</t>
   </si>
   <si>
-    <t>8704.0</t>
+    <t>11742.0</t>
   </si>
   <si>
     <t>5614.0</t>
   </si>
   <si>
-    <t>3090.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
+    <t>6128.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
   </si>
   <si>
     <t>13263.0</t>
@@ -603,21 +618,21 @@
     <t>12.8</t>
   </si>
   <si>
-    <t>11480.0</t>
+    <t>14886.0</t>
   </si>
   <si>
     <t>8270.0</t>
   </si>
   <si>
-    <t>3210.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
+    <t>6616.0</t>
   </si>
   <si>
     <t>17493.0</t>
   </si>
   <si>
+    <t>72.0</t>
+  </si>
+  <si>
     <t>99.75</t>
   </si>
   <si>
@@ -633,12 +648,18 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>7007.0</t>
+    <t>8525.0</t>
   </si>
   <si>
     <t>5403.0</t>
   </si>
   <si>
+    <t>3122.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
     <t>10677.0</t>
   </si>
   <si>
@@ -660,18 +681,24 @@
     <t>9.0</t>
   </si>
   <si>
-    <t>4454.0</t>
+    <t>5912.0</t>
   </si>
   <si>
     <t>3267.0</t>
   </si>
   <si>
-    <t>1187.0</t>
+    <t>2645.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
   </si>
   <si>
     <t>6787.0</t>
   </si>
   <si>
+    <t>75.0</t>
+  </si>
+  <si>
     <t>99.43</t>
   </si>
   <si>
@@ -690,25 +717,25 @@
     <t>71.0</t>
   </si>
   <si>
-    <t>547.0</t>
+    <t>670.0</t>
   </si>
   <si>
     <t>398.0</t>
   </si>
   <si>
-    <t>149.0</t>
+    <t>272.0</t>
   </si>
   <si>
     <t>834.0</t>
   </si>
   <si>
+    <t>62.0</t>
+  </si>
+  <si>
     <t>96.98</t>
   </si>
   <si>
     <t>97.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
   </si>
 </sst>
 </file>
@@ -1160,31 +1187,31 @@
         <v>32</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
         <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1258,34 +1285,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1305,84 +1332,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
         <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1456,34 +1483,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1503,84 +1530,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1654,19 +1681,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1675,13 +1702,13 @@
         <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1701,84 +1728,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1852,19 +1879,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1873,13 +1900,13 @@
         <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1899,84 +1926,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2050,34 +2077,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2097,84 +2124,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2248,19 +2275,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2269,13 +2296,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2295,84 +2322,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2446,19 +2473,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2467,7 +2494,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2493,84 +2520,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2644,34 +2671,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2691,84 +2718,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2842,34 +2869,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2889,84 +2916,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3040,34 +3067,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3087,28 +3114,28 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
@@ -3120,7 +3147,7 @@
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3247,34 +3274,34 @@
         <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3348,19 +3375,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3369,7 +3396,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -3395,40 +3422,40 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3502,34 +3529,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3549,16 +3576,16 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>79</v>
@@ -3573,7 +3600,7 @@
         <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3674,7 +3701,7 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3700,45 +3727,45 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>82</v>
@@ -3747,31 +3774,31 @@
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3845,19 +3872,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3866,13 +3893,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3892,84 +3919,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
         <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4043,34 +4070,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4090,84 +4117,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4241,10 +4268,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -4253,7 +4280,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4262,13 +4289,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4288,84 +4315,84 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="233">
   <si>
     <t>mesure</t>
   </si>
@@ -324,7 +324,10 @@
     <t>taux-paiement-dpb</t>
   </si>
   <si>
-    <t>99.82</t>
+    <t>99.5</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
   </si>
   <si>
     <t>99.0</t>
@@ -369,7 +372,7 @@
     <t>87.0</t>
   </si>
   <si>
-    <t>99.88</t>
+    <t>99.72</t>
   </si>
   <si>
     <t>27</t>
@@ -441,7 +444,7 @@
     <t>42.0</t>
   </si>
   <si>
-    <t>99.72</t>
+    <t>99.64</t>
   </si>
   <si>
     <t>32</t>
@@ -468,7 +471,7 @@
     <t>1908.0</t>
   </si>
   <si>
-    <t>99.46</t>
+    <t>99.71</t>
   </si>
   <si>
     <t>44</t>
@@ -501,9 +504,6 @@
     <t>95.0</t>
   </si>
   <si>
-    <t>99.7</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -537,9 +537,6 @@
     <t>61.0</t>
   </si>
   <si>
-    <t>99.76</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -567,7 +564,7 @@
     <t>46.0</t>
   </si>
   <si>
-    <t>99.61</t>
+    <t>99.55</t>
   </si>
   <si>
     <t>75</t>
@@ -603,7 +600,7 @@
     <t>13263.0</t>
   </si>
   <si>
-    <t>99.77</t>
+    <t>99.22</t>
   </si>
   <si>
     <t>76</t>
@@ -633,7 +630,7 @@
     <t>72.0</t>
   </si>
   <si>
-    <t>99.75</t>
+    <t>99.66</t>
   </si>
   <si>
     <t>84</t>
@@ -663,9 +660,6 @@
     <t>10677.0</t>
   </si>
   <si>
-    <t>99.73</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -699,7 +693,7 @@
     <t>75.0</t>
   </si>
   <si>
-    <t>99.43</t>
+    <t>99.45</t>
   </si>
   <si>
     <t>94</t>
@@ -732,10 +726,10 @@
     <t>62.0</t>
   </si>
   <si>
-    <t>96.98</t>
-  </si>
-  <si>
-    <t>97.0</t>
+    <t>94.94</t>
+  </si>
+  <si>
+    <t>96.0</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1279,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
@@ -1297,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1306,7 +1300,7 @@
         <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -1332,31 +1326,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M3" t="s">
         <v>71</v>
@@ -1379,16 +1373,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1397,10 +1391,10 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1409,7 +1403,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1483,10 +1477,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1495,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1504,13 +1498,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1530,34 +1524,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1577,16 +1571,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
         <v>146</v>
       </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>156</v>
-      </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1598,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1607,7 +1601,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1781,10 +1775,10 @@
         <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1796,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1805,7 +1799,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1879,19 +1873,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>170</v>
-      </c>
-      <c r="F2" t="s">
-        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1906,7 +1900,7 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1926,34 +1920,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
         <v>169</v>
       </c>
-      <c r="E3" t="s">
-        <v>170</v>
-      </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>174</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>175</v>
       </c>
       <c r="K3" t="s">
         <v>161</v>
       </c>
       <c r="L3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" t="s">
         <v>176</v>
-      </c>
-      <c r="M3" t="s">
-        <v>177</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1973,16 +1967,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
         <v>169</v>
       </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1994,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2003,7 +1997,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2077,19 +2071,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
         <v>179</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" t="s">
-        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2098,13 +2092,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2124,31 +2118,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
         <v>179</v>
       </c>
-      <c r="E3" t="s">
-        <v>180</v>
-      </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>186</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>187</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>188</v>
-      </c>
-      <c r="L3" t="s">
-        <v>189</v>
       </c>
       <c r="M3" t="s">
         <v>67</v>
@@ -2171,16 +2165,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
         <v>179</v>
       </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2189,10 +2183,10 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2201,7 +2195,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2275,19 +2269,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
         <v>191</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>192</v>
-      </c>
-      <c r="F2" t="s">
-        <v>193</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2296,7 +2290,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2322,34 +2316,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
         <v>191</v>
       </c>
-      <c r="E3" t="s">
-        <v>192</v>
-      </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>196</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>197</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>
       </c>
       <c r="L3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" t="s">
         <v>198</v>
-      </c>
-      <c r="M3" t="s">
-        <v>199</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2369,16 +2363,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" t="s">
         <v>191</v>
       </c>
-      <c r="E4" t="s">
-        <v>192</v>
-      </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2390,7 +2384,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2399,7 +2393,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2473,19 +2467,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
         <v>201</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>203</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2494,7 +2488,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2520,31 +2514,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
         <v>201</v>
       </c>
-      <c r="E3" t="s">
-        <v>202</v>
-      </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>206</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>207</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>208</v>
-      </c>
-      <c r="L3" t="s">
-        <v>209</v>
       </c>
       <c r="M3" t="s">
         <v>71</v>
@@ -2567,16 +2561,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
         <v>201</v>
       </c>
-      <c r="E4" t="s">
-        <v>202</v>
-      </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2588,7 +2582,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2597,7 +2591,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2671,28 +2665,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
         <v>211</v>
-      </c>
-      <c r="E2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" t="s">
-        <v>213</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2718,34 +2712,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" t="s">
         <v>217</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>218</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>219</v>
-      </c>
-      <c r="L3" t="s">
-        <v>220</v>
-      </c>
-      <c r="M3" t="s">
-        <v>221</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2765,16 +2759,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2783,10 +2777,10 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2795,7 +2789,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2869,28 +2863,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" t="s">
         <v>223</v>
-      </c>
-      <c r="E2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" t="s">
-        <v>225</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2916,34 +2910,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
         <v>229</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>230</v>
-      </c>
-      <c r="K3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M3" t="s">
-        <v>232</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2963,16 +2957,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2981,19 +2975,19 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3777,7 +3771,7 @@
         <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -3789,7 +3783,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3798,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3872,19 +3866,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3893,13 +3887,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3919,34 +3913,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3966,16 +3960,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -3987,7 +3981,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3996,7 +3990,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4070,19 +4064,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4091,13 +4085,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4117,34 +4111,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4164,16 +4158,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -4185,7 +4179,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4194,7 +4188,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4268,10 +4262,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -4280,7 +4274,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4289,13 +4283,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4315,34 +4309,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4362,16 +4356,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -4383,7 +4377,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4392,7 +4386,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="237">
   <si>
     <t>mesure</t>
   </si>
@@ -111,162 +111,165 @@
     <t>383.0</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>% de surface agricole</t>
+  </si>
+  <si>
+    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
+  </si>
+  <si>
+    <t>nb-agriculteurs-agro-eco</t>
+  </si>
+  <si>
+    <t>188.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>agriculteurs</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>408.0</t>
+  </si>
+  <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>15.0</t>
   </si>
   <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>% de surface agricole</t>
-  </si>
-  <si>
-    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
-  </si>
-  <si>
-    <t>nb-agriculteurs-agro-eco</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>284.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>agriculteurs</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>408.0</t>
-  </si>
-  <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>151.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>521.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>12.0</t>
   </si>
   <si>
@@ -309,7 +312,7 @@
     <t>315.0</t>
   </si>
   <si>
-    <t>748.0</t>
+    <t>748</t>
   </si>
   <si>
     <t>73.0</t>
@@ -330,279 +333,282 @@
     <t>2021-12-31</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>2229.0</t>
+  </si>
+  <si>
+    <t>1075.0</t>
+  </si>
+  <si>
+    <t>1154.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>99.72</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>3615.0</t>
+  </si>
+  <si>
+    <t>2074.0</t>
+  </si>
+  <si>
+    <t>1541.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>4338</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>99.81</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>2211.0</t>
+  </si>
+  <si>
+    <t>1604.0</t>
+  </si>
+  <si>
+    <t>607.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>99.64</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>1495.0</t>
+  </si>
+  <si>
+    <t>893.0</t>
+  </si>
+  <si>
+    <t>602.0</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>99.71</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>6189.0</t>
+  </si>
+  <si>
+    <t>2481.0</t>
+  </si>
+  <si>
+    <t>3708.0</t>
+  </si>
+  <si>
+    <t>149.0</t>
+  </si>
+  <si>
+    <t>6369</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>4814.0</t>
+  </si>
+  <si>
+    <t>2953.0</t>
+  </si>
+  <si>
+    <t>1861.0</t>
+  </si>
+  <si>
+    <t>5985</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>3845.0</t>
+  </si>
+  <si>
+    <t>2697.0</t>
+  </si>
+  <si>
+    <t>1148.0</t>
+  </si>
+  <si>
+    <t>5172</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>99.55</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>11742.0</t>
+  </si>
+  <si>
+    <t>5614.0</t>
+  </si>
+  <si>
+    <t>6128.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>13263</t>
+  </si>
+  <si>
+    <t>99.22</t>
+  </si>
+  <si>
     <t>99.0</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>2229.0</t>
-  </si>
-  <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>1154.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>2406.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>99.72</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>3615.0</t>
-  </si>
-  <si>
-    <t>2074.0</t>
-  </si>
-  <si>
-    <t>1541.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>4338.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>99.81</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>2211.0</t>
-  </si>
-  <si>
-    <t>1604.0</t>
-  </si>
-  <si>
-    <t>607.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>3063.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>99.64</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>1495.0</t>
-  </si>
-  <si>
-    <t>893.0</t>
-  </si>
-  <si>
-    <t>602.0</t>
-  </si>
-  <si>
-    <t>1908.0</t>
-  </si>
-  <si>
-    <t>99.71</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>6189.0</t>
-  </si>
-  <si>
-    <t>2481.0</t>
-  </si>
-  <si>
-    <t>3708.0</t>
-  </si>
-  <si>
-    <t>149.0</t>
-  </si>
-  <si>
-    <t>6369.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>4814.0</t>
-  </si>
-  <si>
-    <t>2953.0</t>
-  </si>
-  <si>
-    <t>1861.0</t>
-  </si>
-  <si>
-    <t>5985.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>3845.0</t>
-  </si>
-  <si>
-    <t>2697.0</t>
-  </si>
-  <si>
-    <t>1148.0</t>
-  </si>
-  <si>
-    <t>5172.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>99.55</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>11742.0</t>
-  </si>
-  <si>
-    <t>5614.0</t>
-  </si>
-  <si>
-    <t>6128.0</t>
-  </si>
-  <si>
-    <t>109.0</t>
-  </si>
-  <si>
-    <t>13263.0</t>
-  </si>
-  <si>
-    <t>99.22</t>
-  </si>
-  <si>
     <t>76</t>
   </si>
   <si>
@@ -624,7 +630,7 @@
     <t>6616.0</t>
   </si>
   <si>
-    <t>17493.0</t>
+    <t>17493</t>
   </si>
   <si>
     <t>72.0</t>
@@ -642,72 +648,78 @@
     <t>10.5</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8525.0</t>
+  </si>
+  <si>
+    <t>5403</t>
+  </si>
+  <si>
+    <t>3122.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>10677</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>5912.0</t>
+  </si>
+  <si>
+    <t>3267.0</t>
+  </si>
+  <si>
+    <t>2645.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>6787</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>99.45</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>8525.0</t>
-  </si>
-  <si>
-    <t>5403.0</t>
-  </si>
-  <si>
-    <t>3122.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>10677.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>5912.0</t>
-  </si>
-  <si>
-    <t>3267.0</t>
-  </si>
-  <si>
-    <t>2645.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>6787.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>99.45</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
     <t>71.0</t>
   </si>
   <si>
@@ -720,7 +732,7 @@
     <t>272.0</t>
   </si>
   <si>
-    <t>834.0</t>
+    <t>834</t>
   </si>
   <si>
     <t>62.0</t>
@@ -1279,10 +1291,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
@@ -1291,7 +1303,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1300,13 +1312,13 @@
         <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1326,31 +1338,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
         <v>71</v>
@@ -1364,25 +1376,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1394,7 +1406,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1403,7 +1415,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1477,19 +1489,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1498,13 +1510,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1524,34 +1536,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1562,25 +1574,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" t="s">
-        <v>146</v>
-      </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1592,7 +1604,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1601,7 +1613,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1675,34 +1687,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1722,34 +1734,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K3" t="s">
         <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1760,25 +1772,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1790,7 +1802,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1799,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1873,34 +1885,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1920,34 +1932,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1958,25 +1970,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1988,7 +2000,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1997,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2071,19 +2083,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2092,13 +2104,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2118,31 +2130,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M3" t="s">
         <v>67</v>
@@ -2156,25 +2168,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2183,10 +2195,10 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2195,7 +2207,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2269,28 +2281,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2316,34 +2328,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2354,25 +2366,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2384,7 +2396,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2393,7 +2405,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2467,19 +2479,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2488,7 +2500,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2514,31 +2526,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M3" t="s">
         <v>71</v>
@@ -2552,28 +2564,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -2582,7 +2594,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2591,7 +2603,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2665,28 +2677,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2712,34 +2724,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2750,25 +2762,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2777,10 +2789,10 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2789,7 +2801,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2863,28 +2875,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2910,34 +2922,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2948,25 +2960,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2975,19 +2987,19 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3559,7 @@
         <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
         <v>43</v>
@@ -3576,22 +3588,22 @@
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -3668,34 +3680,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3715,34 +3727,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3753,25 +3765,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -3783,7 +3795,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3792,7 +3804,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3866,19 +3878,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3887,13 +3899,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3913,34 +3925,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3951,25 +3963,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -3981,7 +3993,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3990,7 +4002,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4064,19 +4076,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4085,13 +4097,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4111,34 +4123,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4149,25 +4161,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -4179,7 +4191,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4188,7 +4200,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4262,19 +4274,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4283,13 +4295,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4309,34 +4321,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4347,25 +4359,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -4377,7 +4389,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4386,7 +4398,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="233">
   <si>
     <t>mesure</t>
   </si>
@@ -111,7 +111,7 @@
     <t>383.0</t>
   </si>
   <si>
-    <t>15</t>
+    <t>15.0</t>
   </si>
   <si>
     <t>16.0</t>
@@ -141,7 +141,7 @@
     <t>284.0</t>
   </si>
   <si>
-    <t>160</t>
+    <t>160.0</t>
   </si>
   <si>
     <t>100.0</t>
@@ -183,7 +183,7 @@
     <t>111.0</t>
   </si>
   <si>
-    <t>130</t>
+    <t>130.0</t>
   </si>
   <si>
     <t>86.0</t>
@@ -249,7 +249,7 @@
     <t>59.0</t>
   </si>
   <si>
-    <t>521</t>
+    <t>521.0</t>
   </si>
   <si>
     <t>06</t>
@@ -267,9 +267,6 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>15.0</t>
-  </si>
-  <si>
     <t>12.0</t>
   </si>
   <si>
@@ -312,7 +309,7 @@
     <t>315.0</t>
   </si>
   <si>
-    <t>748</t>
+    <t>748.0</t>
   </si>
   <si>
     <t>73.0</t>
@@ -333,7 +330,7 @@
     <t>2021-12-31</t>
   </si>
   <si>
-    <t>99</t>
+    <t>99.0</t>
   </si>
   <si>
     <t>%</t>
@@ -369,7 +366,7 @@
     <t>107.0</t>
   </si>
   <si>
-    <t>2406</t>
+    <t>2406.0</t>
   </si>
   <si>
     <t>87.0</t>
@@ -408,7 +405,7 @@
     <t>74.0</t>
   </si>
   <si>
-    <t>4338</t>
+    <t>4338.0</t>
   </si>
   <si>
     <t>68.0</t>
@@ -441,7 +438,7 @@
     <t>38.0</t>
   </si>
   <si>
-    <t>3063</t>
+    <t>3063.0</t>
   </si>
   <si>
     <t>42.0</t>
@@ -471,7 +468,7 @@
     <t>602.0</t>
   </si>
   <si>
-    <t>1908</t>
+    <t>1908.0</t>
   </si>
   <si>
     <t>99.71</t>
@@ -501,7 +498,7 @@
     <t>149.0</t>
   </si>
   <si>
-    <t>6369</t>
+    <t>6369.0</t>
   </si>
   <si>
     <t>95.0</t>
@@ -534,7 +531,7 @@
     <t>1861.0</t>
   </si>
   <si>
-    <t>5985</t>
+    <t>5985.0</t>
   </si>
   <si>
     <t>61.0</t>
@@ -561,7 +558,7 @@
     <t>1148.0</t>
   </si>
   <si>
-    <t>5172</t>
+    <t>5172.0</t>
   </si>
   <si>
     <t>46.0</t>
@@ -600,15 +597,12 @@
     <t>109.0</t>
   </si>
   <si>
-    <t>13263</t>
+    <t>13263.0</t>
   </si>
   <si>
     <t>99.22</t>
   </si>
   <si>
-    <t>99.0</t>
-  </si>
-  <si>
     <t>76</t>
   </si>
   <si>
@@ -630,7 +624,7 @@
     <t>6616.0</t>
   </si>
   <si>
-    <t>17493</t>
+    <t>17493.0</t>
   </si>
   <si>
     <t>72.0</t>
@@ -648,13 +642,13 @@
     <t>10.5</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>8525.0</t>
   </si>
   <si>
-    <t>5403</t>
+    <t>5403.0</t>
   </si>
   <si>
     <t>3122.0</t>
@@ -663,10 +657,7 @@
     <t>58.0</t>
   </si>
   <si>
-    <t>10677</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>10677.0</t>
   </si>
   <si>
     <t>93</t>
@@ -696,7 +687,7 @@
     <t>81.0</t>
   </si>
   <si>
-    <t>6787</t>
+    <t>6787.0</t>
   </si>
   <si>
     <t>75.0</t>
@@ -717,9 +708,6 @@
     <t>10.6</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
     <t>71.0</t>
   </si>
   <si>
@@ -732,7 +720,7 @@
     <t>272.0</t>
   </si>
   <si>
-    <t>834</t>
+    <t>834.0</t>
   </si>
   <si>
     <t>62.0</t>
@@ -1291,10 +1279,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
@@ -1303,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1312,13 +1300,13 @@
         <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1338,31 +1326,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
         <v>139</v>
       </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>144</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" t="s">
         <v>145</v>
-      </c>
-      <c r="K3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" t="s">
-        <v>146</v>
       </c>
       <c r="M3" t="s">
         <v>71</v>
@@ -1376,25 +1364,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
         <v>139</v>
       </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1406,7 +1394,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1415,7 +1403,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1489,19 +1477,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
         <v>148</v>
       </c>
-      <c r="E2" t="s">
-        <v>149</v>
-      </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1510,13 +1498,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1536,34 +1524,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="s">
-        <v>149</v>
-      </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>153</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>154</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>155</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>156</v>
-      </c>
-      <c r="M3" t="s">
-        <v>157</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1574,25 +1562,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
         <v>148</v>
       </c>
-      <c r="E4" t="s">
-        <v>149</v>
-      </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1604,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1613,7 +1601,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1687,34 +1675,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
         <v>158</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>159</v>
-      </c>
-      <c r="F2" t="s">
-        <v>160</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
         <v>161</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" t="s">
-        <v>162</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1734,34 +1722,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
         <v>158</v>
       </c>
-      <c r="E3" t="s">
-        <v>159</v>
-      </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>165</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>166</v>
       </c>
       <c r="K3" t="s">
         <v>48</v>
       </c>
       <c r="L3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" t="s">
         <v>167</v>
-      </c>
-      <c r="M3" t="s">
-        <v>168</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1772,25 +1760,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
         <v>158</v>
       </c>
-      <c r="E4" t="s">
-        <v>159</v>
-      </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -1802,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1811,7 +1799,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1885,34 +1873,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>170</v>
-      </c>
-      <c r="F2" t="s">
-        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1932,34 +1920,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
         <v>169</v>
       </c>
-      <c r="E3" t="s">
-        <v>170</v>
-      </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>174</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" t="s">
         <v>175</v>
       </c>
-      <c r="K3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>176</v>
-      </c>
-      <c r="M3" t="s">
-        <v>177</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1970,25 +1958,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
         <v>169</v>
       </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2000,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2009,7 +1997,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2083,19 +2071,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
         <v>179</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" t="s">
-        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2104,13 +2092,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2130,31 +2118,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
         <v>179</v>
       </c>
-      <c r="E3" t="s">
-        <v>180</v>
-      </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>186</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>187</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>188</v>
-      </c>
-      <c r="L3" t="s">
-        <v>189</v>
       </c>
       <c r="M3" t="s">
         <v>67</v>
@@ -2168,25 +2156,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
         <v>179</v>
       </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2195,10 +2183,10 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2207,7 +2195,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2281,28 +2269,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
         <v>192</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" t="s">
-        <v>194</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2328,34 +2316,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2366,25 +2354,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2396,7 +2384,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2405,7 +2393,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2479,19 +2467,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
         <v>202</v>
-      </c>
-      <c r="E2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" t="s">
-        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2500,7 +2488,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2526,31 +2514,31 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
         <v>207</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>208</v>
-      </c>
-      <c r="K3" t="s">
-        <v>209</v>
-      </c>
-      <c r="L3" t="s">
-        <v>210</v>
       </c>
       <c r="M3" t="s">
         <v>71</v>
@@ -2564,28 +2552,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -2594,7 +2582,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2603,7 +2591,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2677,28 +2665,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2724,34 +2712,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" t="s">
         <v>218</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>219</v>
-      </c>
-      <c r="K3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M3" t="s">
-        <v>222</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2762,25 +2750,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2789,10 +2777,10 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2801,7 +2789,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2875,28 +2863,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="K2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2922,34 +2910,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2960,25 +2948,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -2987,19 +2975,19 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
         <v>100</v>
-      </c>
-      <c r="M4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3547,7 @@
         <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>43</v>
@@ -3588,22 +3576,22 @@
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -3680,34 +3668,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>86</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3727,34 +3715,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>91</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>92</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
         <v>93</v>
-      </c>
-      <c r="M3" t="s">
-        <v>94</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3765,25 +3753,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -3795,7 +3783,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3804,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3878,19 +3866,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>103</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3899,13 +3887,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3925,34 +3913,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
         <v>102</v>
       </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>109</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>110</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>111</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>112</v>
-      </c>
-      <c r="M3" t="s">
-        <v>113</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3963,25 +3951,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -3993,7 +3981,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4002,7 +3990,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4076,19 +4064,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4097,13 +4085,13 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4123,34 +4111,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
         <v>115</v>
       </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>122</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>123</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>124</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>125</v>
-      </c>
-      <c r="M3" t="s">
-        <v>126</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4161,25 +4149,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
         <v>115</v>
       </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -4191,7 +4179,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4200,7 +4188,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4274,19 +4262,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
         <v>128</v>
       </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4295,13 +4283,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4321,34 +4309,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
         <v>128</v>
       </c>
-      <c r="E3" t="s">
-        <v>129</v>
-      </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>133</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>134</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>135</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>137</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4359,25 +4347,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
         <v>128</v>
       </c>
-      <c r="E4" t="s">
-        <v>129</v>
-      </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -4389,7 +4377,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4398,7 +4386,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="240">
   <si>
     <t>mesure</t>
   </si>
@@ -93,10 +93,10 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
   </si>
   <si>
     <t>0.6</t>
@@ -105,643 +105,652 @@
     <t>2017-12-31</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>633.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>% de surface agricole</t>
+  </si>
+  <si>
+    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
+  </si>
+  <si>
+    <t>nb-agriculteurs-agro-eco</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>376.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>agriculteurs</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>383.0</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>% de surface agricole</t>
-  </si>
-  <si>
-    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
-  </si>
-  <si>
-    <t>nb-agriculteurs-agro-eco</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>284.0</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>agriculteurs</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>9.4</t>
   </si>
   <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>495.0</t>
+  </si>
+  <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>712.0</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>398.0</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>748.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>Sécuriser le paiement des aides PAC</t>
+  </si>
+  <si>
+    <t>Taux de bénéficiaires payés dans les délais prévus</t>
+  </si>
+  <si>
+    <t>taux-paiement-dpb</t>
+  </si>
+  <si>
+    <t>99.92</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>2789.0</t>
+  </si>
+  <si>
+    <t>1075.0</t>
+  </si>
+  <si>
+    <t>1714.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>2406.0</t>
+  </si>
+  <si>
+    <t>99.53</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>4488.0</t>
+  </si>
+  <si>
+    <t>2074.0</t>
+  </si>
+  <si>
+    <t>2414.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>4338.0</t>
+  </si>
+  <si>
+    <t>99.75</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>2506.0</t>
+  </si>
+  <si>
+    <t>1604.0</t>
+  </si>
+  <si>
+    <t>902.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>3063.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>99.77</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>76.0</t>
+    <t>87.0</t>
   </si>
   <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>130</t>
+    <t>1831.0</t>
+  </si>
+  <si>
+    <t>893.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>1908.0</t>
+  </si>
+  <si>
+    <t>99.73</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>4.2</t>
   </si>
   <si>
     <t>86.0</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>408.0</t>
-  </si>
-  <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>151.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>9058.0</t>
+  </si>
+  <si>
+    <t>2481.0</t>
+  </si>
+  <si>
+    <t>6577.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>6369.0</t>
+  </si>
+  <si>
+    <t>99.45</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>5355.0</t>
+  </si>
+  <si>
+    <t>2953.0</t>
+  </si>
+  <si>
+    <t>2402.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>5985.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>99.7</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>4381.0</t>
+  </si>
+  <si>
+    <t>2697.0</t>
+  </si>
+  <si>
+    <t>1684.0</t>
+  </si>
+  <si>
+    <t>5172.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>99.69</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>13827.0</t>
+  </si>
+  <si>
+    <t>5614.0</t>
+  </si>
+  <si>
+    <t>8213.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>13263.0</t>
+  </si>
+  <si>
+    <t>99.54</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>19313.0</t>
+  </si>
+  <si>
+    <t>8270.0</t>
+  </si>
+  <si>
+    <t>11043.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>17493.0</t>
+  </si>
+  <si>
+    <t>99.64</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>9866.0</t>
+  </si>
+  <si>
+    <t>5403.0</t>
+  </si>
+  <si>
+    <t>4463.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>10677.0</t>
+  </si>
+  <si>
+    <t>99.57</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>7344.0</t>
+  </si>
+  <si>
+    <t>3267.0</t>
+  </si>
+  <si>
+    <t>4077.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>6787.0</t>
+  </si>
+  <si>
+    <t>99.62</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>10.6</t>
   </si>
   <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>629.0</t>
-  </si>
-  <si>
-    <t>314.0</t>
-  </si>
-  <si>
-    <t>315.0</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>Sécuriser le paiement des aides PAC</t>
-  </si>
-  <si>
-    <t>Taux de bénéficiaires payés dans les délais prévus</t>
-  </si>
-  <si>
-    <t>taux-paiement-dpb</t>
-  </si>
-  <si>
-    <t>99.5</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>2229.0</t>
-  </si>
-  <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>1154.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>99.72</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>3615.0</t>
-  </si>
-  <si>
-    <t>2074.0</t>
-  </si>
-  <si>
-    <t>1541.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>4338</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>99.81</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>2211.0</t>
-  </si>
-  <si>
-    <t>1604.0</t>
-  </si>
-  <si>
-    <t>607.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>3063</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>99.64</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>1495.0</t>
-  </si>
-  <si>
-    <t>893.0</t>
-  </si>
-  <si>
-    <t>602.0</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>99.71</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>6189.0</t>
-  </si>
-  <si>
-    <t>2481.0</t>
-  </si>
-  <si>
-    <t>3708.0</t>
-  </si>
-  <si>
-    <t>149.0</t>
-  </si>
-  <si>
-    <t>6369</t>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>775.0</t>
+  </si>
+  <si>
+    <t>377.0</t>
   </si>
   <si>
     <t>95.0</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>4814.0</t>
-  </si>
-  <si>
-    <t>2953.0</t>
-  </si>
-  <si>
-    <t>1861.0</t>
-  </si>
-  <si>
-    <t>5985</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>3845.0</t>
-  </si>
-  <si>
-    <t>2697.0</t>
-  </si>
-  <si>
-    <t>1148.0</t>
-  </si>
-  <si>
-    <t>5172</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>99.55</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>11742.0</t>
-  </si>
-  <si>
-    <t>5614.0</t>
-  </si>
-  <si>
-    <t>6128.0</t>
-  </si>
-  <si>
-    <t>109.0</t>
-  </si>
-  <si>
-    <t>13263</t>
-  </si>
-  <si>
-    <t>99.22</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>14886.0</t>
-  </si>
-  <si>
-    <t>8270.0</t>
-  </si>
-  <si>
-    <t>6616.0</t>
-  </si>
-  <si>
-    <t>17493</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>99.66</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8525.0</t>
-  </si>
-  <si>
-    <t>5403</t>
-  </si>
-  <si>
-    <t>3122.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>10677</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>5912.0</t>
-  </si>
-  <si>
-    <t>3267.0</t>
-  </si>
-  <si>
-    <t>2645.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>6787</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>99.45</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>670.0</t>
-  </si>
-  <si>
-    <t>398.0</t>
-  </si>
-  <si>
-    <t>272.0</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>94.94</t>
-  </si>
-  <si>
-    <t>96.0</t>
+    <t>834.0</t>
+  </si>
+  <si>
+    <t>91.31</t>
+  </si>
+  <si>
+    <t>91.0</t>
   </si>
 </sst>
 </file>
@@ -1291,34 +1300,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1338,34 +1347,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>144</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>145</v>
-      </c>
-      <c r="K3" t="s">
-        <v>142</v>
       </c>
       <c r="L3" t="s">
         <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1376,28 +1385,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -1406,7 +1415,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1415,7 +1424,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1495,28 +1504,28 @@
         <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1542,28 +1551,28 @@
         <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M3" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1574,13 +1583,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
       </c>
       <c r="D4" t="s">
         <v>148</v>
@@ -1589,22 +1598,22 @@
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1613,7 +1622,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1687,34 +1696,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1734,34 +1743,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1772,28 +1781,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -1802,7 +1811,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -1811,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1885,34 +1894,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1932,34 +1941,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1970,28 +1979,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -2000,7 +2009,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2009,7 +2018,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2083,34 +2092,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2130,34 +2139,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2168,37 +2177,37 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
         <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" t="s">
-        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2207,7 +2216,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2281,28 +2290,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2328,34 +2337,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2366,28 +2375,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -2396,7 +2405,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2405,7 +2414,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2479,34 +2488,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2526,34 +2535,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2564,28 +2573,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -2594,7 +2603,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2603,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2677,28 +2686,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2724,34 +2733,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M3" t="s">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2762,37 +2771,37 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
         <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" t="s">
-        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2801,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2875,28 +2884,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -2922,34 +2931,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="L3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2960,46 +2969,46 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" t="s">
-        <v>100</v>
-      </c>
       <c r="M4" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3156,7 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3227,25 +3236,25 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -3274,10 +3283,10 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
@@ -3399,16 +3408,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3455,7 +3464,7 @@
         <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3541,28 +3550,28 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3588,22 +3597,22 @@
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
         <v>80</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -3680,34 +3689,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3727,34 +3736,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
         <v>91</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>92</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" t="s">
-        <v>94</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3765,28 +3774,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -3795,7 +3804,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3804,7 +3813,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3878,34 +3887,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3925,34 +3934,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" t="s">
         <v>109</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" t="s">
-        <v>112</v>
-      </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3963,28 +3972,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -3993,7 +4002,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4002,7 +4011,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4076,34 +4085,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4123,34 +4132,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4161,28 +4170,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -4191,7 +4200,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4200,7 +4209,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4274,34 +4283,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4321,34 +4330,34 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
         <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" t="s">
         <v>133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>137</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4359,28 +4368,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -4389,7 +4398,7 @@
         <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -4398,7 +4407,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
